--- a/docs/StructureDefinition-device-request.xlsx
+++ b/docs/StructureDefinition-device-request.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/device-request</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/device-request</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCoreDeviceRequest</t>
+    <t>SehatukCoreDeviceRequest</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>RoadxCore Device Request</t>
+    <t>SehatukCore Device Request</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore constraints on DeviceRequest resource mandating support for elements relevant to the devices being requested on a prior authorization request</t>
+    <t>SehatukCore constraints on DeviceRequest resource mandating support for elements relevant to the devices being requested on a prior authorization request</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -249,10 +249,6 @@
     <t>Represents a request for a patient to employ a medical device. The device may be an implantable device, or an external assistive device, such as a walker.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -269,47 +265,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DeviceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DeviceRequest.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DeviceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>DeviceRequest.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -362,10 +362,6 @@
     <t>DeviceRequest.meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Version specific identifier</t>
   </si>
   <si>
@@ -636,6 +632,175 @@
     <t>ClinicalStatement.identifier</t>
   </si>
   <si>
+    <t>DeviceRequest.identifier.id</t>
+  </si>
+  <si>
+    <t>DeviceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>DeviceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DeviceRequest.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DeviceRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>DeviceRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+valid-uuid:Must be a valid uuid {matches('^[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}$')}</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>DeviceRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>DeviceRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>DeviceRequest.instantiatesCanonical</t>
   </si>
   <si>
@@ -749,9 +914,6 @@
     <t>This element is labeled as a modifier because the status contains the codes cancelled and entered-in-error that mark the request as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes representing the status of the request.</t>
   </si>
   <si>
@@ -831,10 +993,6 @@
   </si>
   <si>
     <t>DeviceRequest.code[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Device requested</t>
@@ -871,7 +1029,7 @@
     <t>codeCodeableConcept</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/professional-billing</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/professional-billing</t>
   </si>
   <si>
     <t>DeviceRequest.parameter</t>
@@ -941,7 +1099,7 @@
     <t>DeviceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/patient)
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/patient)
 </t>
   </si>
   <si>
@@ -989,6 +1147,10 @@
   <si>
     <t xml:space="preserve">ref-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+valid-relative-reference:Reference should be a relative reference within message bundle using existing entry.fullUrl {Bundle.type='message' implies matches('((http|https)://([A-Za-z0-9-.:%$]*/)+)(Account|ActivityDefinition|AdverseEvent|AllergyIntolerance|Appointment|AppointmentResponse|AuditEvent|Basic|Binary|BiologicallyDerivedProduct|BodyStructure|Bundle|CapabilityStatement|CarePlan|CareTeam|CatalogEntry|ChargeItem|ChargeItemDefinition|Claim|ClaimResponse|ClinicalImpression|CodeSystem|Communication|CommunicationRequest|CompartmentDefinition|Composition|ConceptMap|Condition|Consent|Contract|Coverage|CoverageEligibilityRequest|CoverageEligibilityResponse|DetectedIssue|Device|DeviceDefinition|DeviceMetric|DeviceRequest|DeviceUseStatement|DiagnosticReport|DocumentManifest|DocumentReference|EffectEvidenceSynthesis|Encounter|Endpoint|EnrollmentRequest|EnrollmentResponse|EpisodeOfCare|EventDefinition|Evidence|EvidenceVariable|ExampleScenario|ExplanationOfBenefit|FamilyMemberHistory|Flag|Goal|GraphDefinition|Group|GuidanceResponse|HealthcareService|ImagingStudy|Immunization|ImmunizationEvaluation|ImmunizationRecommendation|ImplementationGuide|InsurancePlan|Invoice|Library|Linkage|List|Location|Measure|MeasureReport|Media|Medication|MedicationAdministration|MedicationDispense|MedicationKnowledge|MedicationRequest|MedicationStatement|MedicinalProduct|MedicinalProductAuthorization|MedicinalProductContraindication|MedicinalProductIndication|MedicinalProductIngredient|MedicinalProductInteraction|MedicinalProductManufactured|MedicinalProductPackaged|MedicinalProductPharmaceutical|MedicinalProductUndesirableEffect|MessageDefinition|MessageHeader|MolecularSequence|NamingSystem|NutritionOrder|Observation|ObservationDefinition|OperationDefinition|OperationOutcome|Organization|OrganizationAffiliation|Patient|PaymentNotice|PaymentReconciliation|Person|PlanDefinition|Practitioner|PractitionerRole|Procedure|Provenance|Questionnaire|QuestionnaireResponse|RelatedPerson|RequestGroup|ResearchDefinition|ResearchElementDefinition|ResearchStudy|ResearchSubject|RiskAssessment|RiskEvidenceSynthesis|Schedule|SearchParameter|ServiceRequest|Slot|Specimen|SpecimenDefinition|StructureDefinition|StructureMap|Subscription|Substance|SubstanceNucleicAcid|SubstancePolymer|SubstanceProtein|SubstanceReferenceInformation|SubstanceSourceMaterial|SubstanceSpecification|SupplyDelivery|SupplyRequest|Task|TerminologyCapabilities|TestReport|TestScript|ValueSet|VerificationResult|VisionPrescription)/[A-Za-z0-9-.]{1,64}(/_history/[A-Za-z0-9-.]{1,64})?')}</t>
   </si>
   <si>
     <t>DeviceRequest.subject.type</t>
@@ -1037,174 +1199,46 @@
     <t>DeviceRequest.subject.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
     <t>DeviceRequest.subject.identifier.type</t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>http://roadxcore.com/terminology/ValueSet/patient-identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/patient-identifier-type</t>
   </si>
   <si>
     <t>DeviceRequest.subject.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
     <t>DeviceRequest.subject.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
     <t>DeviceRequest.subject.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t>DeviceRequest.subject.identifier.assigner</t>
+  </si>
+  <si>
+    <t>DeviceRequest.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>DeviceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/encounter)
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>DeviceRequest.subject.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>DeviceRequest.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>DeviceRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/encounter)
-</t>
-  </si>
-  <si>
     <t>Encounter motivating request</t>
   </si>
   <si>
@@ -1224,6 +1258,27 @@
   </si>
   <si>
     <t>ClinicalStatement.encounter</t>
+  </si>
+  <si>
+    <t>DeviceRequest.encounter.id</t>
+  </si>
+  <si>
+    <t>DeviceRequest.encounter.extension</t>
+  </si>
+  <si>
+    <t>DeviceRequest.encounter.reference</t>
+  </si>
+  <si>
+    <t>DeviceRequest.encounter.type</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>DeviceRequest.encounter.identifier</t>
+  </si>
+  <si>
+    <t>DeviceRequest.encounter.display</t>
   </si>
   <si>
     <t>DeviceRequest.occurrence[x]</t>
@@ -1386,7 +1441,7 @@
     <t>DeviceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/prescription-diagnosis)
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/prescription-diagnosis)
 </t>
   </si>
   <si>
@@ -1397,6 +1452,24 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>DeviceRequest.reasonReference.id</t>
+  </si>
+  <si>
+    <t>DeviceRequest.reasonReference.extension</t>
+  </si>
+  <si>
+    <t>DeviceRequest.reasonReference.reference</t>
+  </si>
+  <si>
+    <t>DeviceRequest.reasonReference.type</t>
+  </si>
+  <si>
+    <t>DeviceRequest.reasonReference.identifier</t>
+  </si>
+  <si>
+    <t>DeviceRequest.reasonReference.display</t>
   </si>
   <si>
     <t>DeviceRequest.insurance</t>
@@ -1790,7 +1863,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1799,17 +1872,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="40.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.90625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1818,27 +1891,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.08984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.96875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.0703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.95703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.57421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="50.80078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.85546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="61.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2057,16 +2130,16 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>72</v>
@@ -2077,7 +2150,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2085,31 +2158,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2159,13 +2232,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2191,7 +2264,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2199,28 +2272,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2271,19 +2344,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2303,7 +2376,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2314,7 +2387,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -2326,7 +2399,7 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>96</v>
@@ -2389,7 +2462,7 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -2540,28 +2613,28 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2611,19 +2684,19 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -2643,7 +2716,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2654,28 +2727,28 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2725,19 +2798,19 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
@@ -2757,7 +2830,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2768,28 +2841,28 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2839,19 +2912,19 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2871,7 +2944,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2879,31 +2952,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2953,7 +3026,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2965,7 +3038,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2985,7 +3058,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3005,19 +3078,19 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3043,31 +3116,31 @@
         <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -3079,7 +3152,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -3099,7 +3172,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3119,19 +3192,19 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3157,31 +3230,31 @@
         <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3193,7 +3266,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -3213,7 +3286,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3224,28 +3297,28 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3295,19 +3368,19 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>72</v>
@@ -3327,7 +3400,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3338,7 +3411,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3350,16 +3423,16 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3385,43 +3458,43 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
@@ -3441,18 +3514,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3464,16 +3537,16 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3523,28 +3596,28 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>72</v>
@@ -3555,11 +3628,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3578,16 +3651,16 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3637,7 +3710,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3658,7 +3731,7 @@
         <v>72</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>72</v>
@@ -3669,7 +3742,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3698,7 +3771,7 @@
         <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>105</v>
@@ -3751,7 +3824,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3772,7 +3845,7 @@
         <v>72</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>72</v>
@@ -3783,7 +3856,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3800,7 +3873,7 @@
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>72</v>
@@ -3809,16 +3882,16 @@
         <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>105</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>72</v>
@@ -3867,7 +3940,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -3888,7 +3961,7 @@
         <v>72</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>72</v>
@@ -3899,7 +3972,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3907,28 +3980,28 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3979,7 +4052,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3991,27 +4064,27 @@
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4022,7 +4095,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -4031,20 +4104,18 @@
         <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>72</v>
@@ -4093,28 +4164,28 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -4125,11 +4196,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4145,19 +4216,19 @@
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4195,19 +4266,19 @@
         <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -4219,16 +4290,16 @@
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -4239,7 +4310,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4250,28 +4321,32 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>72</v>
       </c>
@@ -4295,13 +4370,13 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -4319,39 +4394,39 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>219</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4362,7 +4437,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4371,19 +4446,23 @@
         <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>72</v>
       </c>
@@ -4407,13 +4486,13 @@
         <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>72</v>
@@ -4431,39 +4510,39 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4471,31 +4550,35 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
       </c>
@@ -4507,7 +4590,7 @@
         <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>72</v>
@@ -4549,22 +4632,22 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>72</v>
@@ -4575,7 +4658,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4583,31 +4666,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4615,13 +4698,13 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>72</v>
@@ -4633,63 +4716,63 @@
         <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>243</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4697,28 +4780,28 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4727,7 +4810,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>72</v>
@@ -4745,13 +4828,13 @@
         <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>72</v>
@@ -4769,31 +4852,31 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>72</v>
@@ -4801,7 +4884,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4812,34 +4895,34 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>72</v>
       </c>
@@ -4859,13 +4942,13 @@
         <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>72</v>
@@ -4883,31 +4966,31 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>72</v>
@@ -4915,7 +4998,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4923,30 +5006,32 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>72</v>
@@ -4971,94 +5056,96 @@
         <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -5083,11 +5170,13 @@
         <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>72</v>
@@ -5105,39 +5194,39 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>274</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5157,16 +5246,16 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5217,7 +5306,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -5229,27 +5318,27 @@
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5260,25 +5349,25 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5329,28 +5418,28 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>72</v>
@@ -5361,18 +5450,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -5381,20 +5470,18 @@
         <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5443,28 +5530,28 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -5473,51 +5560,49 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>72</v>
@@ -5535,13 +5620,13 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>72</v>
@@ -5559,39 +5644,39 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>72</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5599,28 +5684,28 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5629,7 +5714,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>72</v>
@@ -5647,13 +5732,13 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>72</v>
@@ -5671,39 +5756,39 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>274</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5714,34 +5799,34 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="P35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>72</v>
       </c>
@@ -5761,13 +5846,13 @@
         <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>72</v>
@@ -5785,39 +5870,39 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>274</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5825,28 +5910,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5873,92 +5958,92 @@
         <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5985,13 +6070,11 @@
         <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
@@ -6009,43 +6092,43 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6064,17 +6147,15 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>72</v>
@@ -6111,19 +6192,19 @@
         <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6135,27 +6216,27 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6166,7 +6247,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -6175,20 +6256,18 @@
         <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>72</v>
@@ -6237,19 +6316,19 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>98</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>313</v>
+        <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
@@ -6258,7 +6337,7 @@
         <v>72</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>72</v>
@@ -6269,18 +6348,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6289,19 +6368,19 @@
         <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6327,11 +6406,13 @@
         <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>72</v>
@@ -6349,19 +6430,19 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>72</v>
@@ -6370,7 +6451,7 @@
         <v>72</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>72</v>
@@ -6381,41 +6462,43 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
       </c>
@@ -6463,19 +6546,19 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
@@ -6484,7 +6567,7 @@
         <v>72</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>72</v>
@@ -6495,7 +6578,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6506,7 +6589,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -6518,13 +6601,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>97</v>
+        <v>342</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6551,10 +6634,10 @@
         <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>72</v>
@@ -6575,53 +6658,53 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -6630,16 +6713,16 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6677,51 +6760,51 @@
         <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6729,35 +6812,31 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>72</v>
       </c>
@@ -6781,13 +6860,13 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>332</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>333</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>72</v>
@@ -6805,39 +6884,39 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>72</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6848,7 +6927,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -6857,23 +6936,19 @@
         <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>337</v>
+        <v>96</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>72</v>
       </c>
@@ -6897,11 +6972,13 @@
         <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>72</v>
@@ -6919,28 +6996,28 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>343</v>
+        <v>72</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>72</v>
@@ -6951,18 +7028,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -6971,23 +7048,21 @@
         <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>72</v>
       </c>
@@ -6999,7 +7074,7 @@
         <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>349</v>
+        <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>72</v>
@@ -7023,40 +7098,40 @@
         <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>109</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>72</v>
@@ -7067,7 +7142,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7078,28 +7153,28 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7113,7 +7188,7 @@
         <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>72</v>
@@ -7149,28 +7224,28 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>72</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>72</v>
@@ -7181,7 +7256,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7192,27 +7267,29 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>362</v>
+        <v>123</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>72</v>
@@ -7237,13 +7314,11 @@
         <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>72</v>
+        <v>371</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>72</v>
@@ -7261,28 +7336,28 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>180</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>72</v>
@@ -7293,7 +7368,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7304,28 +7379,28 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7375,28 +7450,28 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>374</v>
+        <v>72</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>375</v>
+        <v>195</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>72</v>
@@ -7407,7 +7482,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7418,7 +7493,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7427,20 +7502,18 @@
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7489,19 +7562,19 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>98</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
@@ -7510,7 +7583,7 @@
         <v>72</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>72</v>
@@ -7519,40 +7592,42 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -7589,51 +7664,51 @@
         <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>385</v>
+        <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>72</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>389</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7644,28 +7719,32 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="I52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>391</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>201</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
       </c>
@@ -7689,13 +7768,13 @@
         <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>72</v>
@@ -7713,39 +7792,39 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>394</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>395</v>
+        <v>180</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>396</v>
+        <v>209</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>398</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7753,31 +7832,35 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>401</v>
+        <v>212</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
       </c>
@@ -7801,13 +7884,11 @@
         <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>72</v>
@@ -7825,39 +7906,39 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>399</v>
+        <v>218</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>403</v>
+        <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>219</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>209</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>406</v>
+        <v>72</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7868,28 +7949,32 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>123</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
       </c>
@@ -7901,7 +7986,7 @@
         <v>72</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>72</v>
@@ -7937,31 +8022,31 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>227</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>72</v>
@@ -7969,7 +8054,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7980,27 +8065,29 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -8013,7 +8100,7 @@
         <v>72</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>72</v>
@@ -8025,13 +8112,13 @@
         <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>72</v>
@@ -8049,31 +8136,31 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>421</v>
+        <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>422</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>237</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>424</v>
+        <v>72</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>72</v>
@@ -8081,7 +8168,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8092,25 +8179,25 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>426</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>241</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8161,31 +8248,31 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>242</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>243</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>430</v>
+        <v>244</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>72</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>72</v>
@@ -8193,7 +8280,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8204,7 +8291,7 @@
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -8213,18 +8300,20 @@
         <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>432</v>
+        <v>247</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -8249,13 +8338,13 @@
         <v>72</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>434</v>
+        <v>72</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>435</v>
+        <v>72</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>72</v>
@@ -8273,39 +8362,39 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>431</v>
+        <v>250</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>439</v>
+        <v>72</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>440</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8313,30 +8402,32 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>442</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>72</v>
@@ -8385,31 +8476,31 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>444</v>
+        <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>437</v>
+        <v>72</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>439</v>
+        <v>72</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>72</v>
@@ -8417,7 +8508,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8428,25 +8519,25 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8497,39 +8588,39 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>72</v>
+        <v>399</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>72</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8540,7 +8631,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -8552,18 +8643,16 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>454</v>
+        <v>96</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>97</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>456</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>72</v>
       </c>
@@ -8611,28 +8700,28 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>453</v>
+        <v>98</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>457</v>
+        <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>72</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>99</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>72</v>
@@ -8643,11 +8732,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>402</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8666,15 +8755,17 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>461</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>462</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -8711,19 +8802,19 @@
         <v>72</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>460</v>
+        <v>109</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -8735,27 +8826,27 @@
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>464</v>
+        <v>72</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>466</v>
+        <v>99</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>467</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8766,7 +8857,7 @@
         <v>73</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>72</v>
@@ -8775,19 +8866,19 @@
         <v>72</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>469</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>470</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>471</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>472</v>
+        <v>363</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8837,38 +8928,2298 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AF62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG62" t="s" s="2">
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F79" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="G79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AK79" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8878,7 +11229,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-device-request.xlsx
+++ b/docs/StructureDefinition-device-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
